--- a/biology/Botanique/Scopulariopsis/Scopulariopsis.xlsx
+++ b/biology/Botanique/Scopulariopsis/Scopulariopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scopulariopsis est un genre de champignons de la famille des Microascaceae (règne des Fungi) de forme anamorphe, qui sont saprophytes de l'homme et pathogènes[3]. Ce genre contient 22 espèces. Scopulariopsis appartient au groupe des Hyphomycètes. Ces espèces se trouvent généralement dans le sol, du bois et des plantes mortes. 
-À l’intérieur, on trouve des espèces de Scopulariopsis dans des murs, des panneaux de cellulose, du papier peint, du bois de la poussière de matelas. Ils sont aussi naturellement présent dans les caves à fromage des fromages à croûte[4] et participent au processus de maturation.
-Leur couleur varie du blanc au crème en passant par le gris jusqu'au marron et au noir[5].
-Des espèces de Scopulariopsis ont été trouvées dans des tapis, des piscines, des chaussures. Les espèces les plus courantes sont Scopulariopsis brevicaulis, S. brumptii, S. candida et S. asperula[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scopulariopsis est un genre de champignons de la famille des Microascaceae (règne des Fungi) de forme anamorphe, qui sont saprophytes de l'homme et pathogènes. Ce genre contient 22 espèces. Scopulariopsis appartient au groupe des Hyphomycètes. Ces espèces se trouvent généralement dans le sol, du bois et des plantes mortes. 
+À l’intérieur, on trouve des espèces de Scopulariopsis dans des murs, des panneaux de cellulose, du papier peint, du bois de la poussière de matelas. Ils sont aussi naturellement présent dans les caves à fromage des fromages à croûte et participent au processus de maturation.
+Leur couleur varie du blanc au crème en passant par le gris jusqu'au marron et au noir.
+Des espèces de Scopulariopsis ont été trouvées dans des tapis, des piscines, des chaussures. Les espèces les plus courantes sont Scopulariopsis brevicaulis, S. brumptii, S. candida et S. asperula,.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (21 novembre 2020)[8] et Index Fungorum                                      (21 novembre 2020)[9] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 novembre 2020) et Index Fungorum                                      (21 novembre 2020) :
 Scopulariopsis africana Woudenb. &amp; Samson 2017
 Scopulariopsis albida Woudenb. &amp; Samson 2017
 Scopulariopsis argentea Svilv. 1941
